--- a/biology/Botanique/Habenaria_thomana/Habenaria_thomana.xlsx
+++ b/biology/Botanique/Habenaria_thomana/Habenaria_thomana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Habenaria thomana Rchb.f. est une espèce de plantes à fleurs de la famille des Orchidaceae et du genre Habenaria, présente sur la ligne montagneuse du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique thomana fait référence à l'île de São Tomé, où les premiers spécimens ont été découverts et dont on a longtemps pensé que l'espèce était endémique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique thomana fait référence à l'île de São Tomé, où les premiers spécimens ont été découverts et dont on a longtemps pensé que l'espèce était endémique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habenaria thomana est une herbe terrestre qui peut atteindre 60 cm de haut. Les feuilles sont rassemblées à la base de la plante par groupes allant jusqu'à 9 feuilles. Les inflorescences érigées mesurentde 20 à 50 cm de long et portent 10 à 30 fleurs vertes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habenaria thomana est une herbe terrestre qui peut atteindre 60 cm de haut. Les feuilles sont rassemblées à la base de la plante par groupes allant jusqu'à 9 feuilles. Les inflorescences érigées mesurentde 20 à 50 cm de long et portent 10 à 30 fleurs vertes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habenaria thomana a été observée dans les forêts primaires et parfois secondaires de Guinée équatoriale (Bioko), du Cameroun et principalement de Sao Tomé-et-Principe[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habenaria thomana a été observée dans les forêts primaires et parfois secondaires de Guinée équatoriale (Bioko), du Cameroun et principalement de Sao Tomé-et-Principe.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habenaria thomana est une plante classée comme vulnérable sur la liste rouge de l'UICN[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habenaria thomana est une plante classée comme vulnérable sur la liste rouge de l'UICN.
 </t>
         </is>
       </c>
